--- a/Src/Assets/Common/Tables/Tables/Hero.xlsx
+++ b/Src/Assets/Common/Tables/Tables/Hero.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CCA\Src\Assets\Common\Tables\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1304BE0B-8B8C-43E5-ADC8-3CEABDFB5EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B2746D-7243-4DFC-B37E-ABFAF5AE865B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6340" yWindow="4110" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="1" r:id="rId1"/>
@@ -43,10 +43,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Monkey</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 猴子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -63,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TripleDamage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Lvbu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -79,8 +71,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WuShuang</t>
+    <t>Wukong</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>["Peerless"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["Mountain Crusher\"#\""]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -540,11 +540,12 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
     <col min="2" max="2" width="25.4140625" customWidth="1"/>
     <col min="3" max="3" width="20.33203125" customWidth="1"/>
     <col min="4" max="4" width="24.4140625" customWidth="1"/>
@@ -567,50 +568,50 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="E2" s="3">
         <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="E3" s="3">
         <v>20</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">

--- a/Src/Assets/Common/Tables/Tables/Hero.xlsx
+++ b/Src/Assets/Common/Tables/Tables/Hero.xlsx
@@ -1,37 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CCA\Src\Assets\Common\Tables\Tables\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B2746D-7243-4DFC-B37E-ABFAF5AE865B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6340" yWindow="4110" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21600" windowHeight="9555"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="279">
   <si>
     <t>Key</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
@@ -43,65 +41,847 @@
     <t>Description</t>
   </si>
   <si>
+    <t>MaxHP</t>
+  </si>
+  <si>
+    <t>SkillIDList</t>
+  </si>
+  <si>
+    <t>Wukong</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 猴子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>伤害*3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxHP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillIDList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["Mountain Crusher"]</t>
   </si>
   <si>
     <t>Lvbu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>吕布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>攻击力+0.5n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wukong</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>["Peerless"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>["Mountain Crusher\"#\""]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diaochan</t>
+  </si>
+  <si>
+    <t>貂蝉</t>
+  </si>
+  <si>
+    <t>消耗子弹指定两名玩家，未攻击对方者失去n!体力</t>
+  </si>
+  <si>
+    <t>["Fracture Cascade"]</t>
+  </si>
+  <si>
+    <t>Licunxu</t>
+  </si>
+  <si>
+    <t>李存勖</t>
+  </si>
+  <si>
+    <t>开局获三把剑；伤害翻n倍（n为血量十位数）；血量最高时每回合流失2体力</t>
+  </si>
+  <si>
+    <t>["Triple Tribute Oath", "Decade's Dominance", "Thespian's Curse"]</t>
+  </si>
+  <si>
+    <t>Houyi</t>
+  </si>
+  <si>
+    <t>后羿</t>
+  </si>
+  <si>
+    <t>消耗2子弹造成3伤害+眩晕，可被挡/反弹</t>
+  </si>
+  <si>
+    <t>["Celestial Shatter"]</t>
+  </si>
+  <si>
+    <t>Bianque</t>
+  </si>
+  <si>
+    <t>扁鹊</t>
+  </si>
+  <si>
+    <t>造成伤害可附加中毒状态，持续掉血</t>
+  </si>
+  <si>
+    <t>["Terminal Affliction"]</t>
+  </si>
+  <si>
+    <t>Arthur</t>
+  </si>
+  <si>
+    <t>亚瑟</t>
+  </si>
+  <si>
+    <t>不能补子弹；消耗20把剑发动核弹级攻击</t>
+  </si>
+  <si>
+    <t>["Royal Knight", "EXcalibur"]</t>
+  </si>
+  <si>
+    <t>Daji</t>
+  </si>
+  <si>
+    <t>妲己</t>
+  </si>
+  <si>
+    <t>攻击生效可造成眩晕</t>
+  </si>
+  <si>
+    <t>["Bewitching Hex"]</t>
+  </si>
+  <si>
+    <t>Dianwei</t>
+  </si>
+  <si>
+    <t>典韦</t>
+  </si>
+  <si>
+    <t>一回合可进行2种不同类型行动</t>
+  </si>
+  <si>
+    <t>["Dual Onslaught"]</t>
+  </si>
+  <si>
+    <t>TheSepulchralGuardian</t>
+  </si>
+  <si>
+    <t>守墓人</t>
+  </si>
+  <si>
+    <t>死亡前对一名玩家造成10点伤害+3溅射</t>
+  </si>
+  <si>
+    <t>["Posthumous Retribution"]</t>
+  </si>
+  <si>
+    <t>KingLeonidasI</t>
+  </si>
+  <si>
+    <t>列奥尼达一世</t>
+  </si>
+  <si>
+    <t>发动后进入三回合免伤状态，每局3次</t>
+  </si>
+  <si>
+    <t>["Spartan Aegis"]</t>
+  </si>
+  <si>
+    <t>Zhugeliang</t>
+  </si>
+  <si>
+    <t>诸葛亮</t>
+  </si>
+  <si>
+    <t>每造成伤害获标记，伤害翻（n%5+1）倍</t>
+  </si>
+  <si>
+    <t>["Volley Cycle"]</t>
+  </si>
+  <si>
+    <t>Chengyaojin</t>
+  </si>
+  <si>
+    <t>程咬金</t>
+  </si>
+  <si>
+    <t>生命≤10时伤害×2，≤5时×4</t>
+  </si>
+  <si>
+    <t>["Threshold Fury"]</t>
+  </si>
+  <si>
+    <t>Maxim</t>
+  </si>
+  <si>
+    <t>马克沁</t>
+  </si>
+  <si>
+    <t>消耗n发子弹对n个玩家各造成2点伤害</t>
+  </si>
+  <si>
+    <t>["Maxim Machine Gun"]</t>
+  </si>
+  <si>
+    <t>Yingzheng</t>
+  </si>
+  <si>
+    <t>嬴政</t>
+  </si>
+  <si>
+    <t>拔剑对自己生效时可额外获得8把剑</t>
+  </si>
+  <si>
+    <t>["Blade Dominator"]</t>
+  </si>
+  <si>
+    <t>Liru</t>
+  </si>
+  <si>
+    <t>李儒</t>
+  </si>
+  <si>
+    <t>攻击未命中者眩晕；可发动焚城使未消耗资源者受伤</t>
+  </si>
+  <si>
+    <t>["Urban Inferno", "Counter Trap"]</t>
+  </si>
+  <si>
+    <t>Zhuangzhou</t>
+  </si>
+  <si>
+    <t>庄周</t>
+  </si>
+  <si>
+    <t>无法成为技能目标；攻击和被攻击时无视对方技能效果</t>
+  </si>
+  <si>
+    <t>["Transcendence"]</t>
+  </si>
+  <si>
+    <t>Zhouyu</t>
+  </si>
+  <si>
+    <t>周瑜</t>
+  </si>
+  <si>
+    <t>可对目标发动反间，若条件满足则造成n+1点伤害</t>
+  </si>
+  <si>
+    <t>["Chain Deceit"]</t>
+  </si>
+  <si>
+    <t>Xiaoqiao</t>
+  </si>
+  <si>
+    <t>小乔</t>
+  </si>
+  <si>
+    <t>可将受到的伤害转移给他人并令其选择效果</t>
+  </si>
+  <si>
+    <t>["Pandora's Torrent"]</t>
+  </si>
+  <si>
+    <t>Lanlingwang</t>
+  </si>
+  <si>
+    <t>兰陵王</t>
+  </si>
+  <si>
+    <t>持续4回合未攻击则进入强化状态</t>
+  </si>
+  <si>
+    <t>["Silent Fury"]</t>
+  </si>
+  <si>
+    <t>Machao</t>
+  </si>
+  <si>
+    <t>马超</t>
+  </si>
+  <si>
+    <t>可失去体力指定目标，本回合对其伤害+2且命中则眩晕</t>
+  </si>
+  <si>
+    <t>["Ferrum Charge", "Requital Blitz"]</t>
+  </si>
+  <si>
+    <t>Jiangwei</t>
+  </si>
+  <si>
+    <t>姜维</t>
+  </si>
+  <si>
+    <t>可进行策略选择获得资源或强化；限定技可交换资源并共享伤害加成</t>
+  </si>
+  <si>
+    <t>["Strategic Gambit", "Collaborating Last Stand"]</t>
+  </si>
+  <si>
+    <t>Lichunfeng</t>
+  </si>
+  <si>
+    <t>李淳风</t>
+  </si>
+  <si>
+    <t>只能使用特定行动，包括天灾、人祸、嫁祸等</t>
+  </si>
+  <si>
+    <t>["Up Cataclysm", "Down Havoc", "Scapegoat Blight", "Self Dharma", "Pacify Right", "War Left", "Divine Chastisement"]</t>
+  </si>
+  <si>
+    <t>Gilgamesh</t>
+  </si>
+  <si>
+    <t>吉尔伽美什</t>
+  </si>
+  <si>
+    <t>拥有无限资源；第一回合无法攻击，免疫负面效果</t>
+  </si>
+  <si>
+    <t>["Golden Vault", "Divine Pride"]</t>
+  </si>
+  <si>
+    <t>Gawain</t>
+  </si>
+  <si>
+    <t>高文</t>
+  </si>
+  <si>
+    <t>半数以上角色未攻击时伤害×3且受伤/3</t>
+  </si>
+  <si>
+    <t>["Solar Surge"]</t>
+  </si>
+  <si>
+    <t>Heiwuchang</t>
+  </si>
+  <si>
+    <t>黑无常</t>
+  </si>
+  <si>
+    <t>可附加尸毒标记，回合结束时按标记数造成伤害</t>
+  </si>
+  <si>
+    <t>["Plague Reckoning"]</t>
+  </si>
+  <si>
+    <t>Baiwuchang</t>
+  </si>
+  <si>
+    <t>白无常</t>
+  </si>
+  <si>
+    <t>可造成眩晕并附身，附身状态下转移伤害</t>
+  </si>
+  <si>
+    <t>["Spirit Shackle", "Binding Passage"]</t>
+  </si>
+  <si>
+    <t>Panguan</t>
+  </si>
+  <si>
+    <t>判官</t>
+  </si>
+  <si>
+    <t>可消耗子弹减少受伤并增强下次攻击；可协议使目标免伤但三回合后死亡</t>
+  </si>
+  <si>
+    <t>["Decree Approval", "Doom Edict"]</t>
+  </si>
+  <si>
+    <t>Mengpo</t>
+  </si>
+  <si>
+    <t>孟婆</t>
+  </si>
+  <si>
+    <t>可协议获得他人技能；可使目标后续回合伤害变化</t>
+  </si>
+  <si>
+    <t>["Soul Reset", "Aftertaste"]</t>
+  </si>
+  <si>
+    <t>Qinguangwang</t>
+  </si>
+  <si>
+    <t>秦广王</t>
+  </si>
+  <si>
+    <t>其他角色攻击你消耗的资源翻倍</t>
+  </si>
+  <si>
+    <t>["Royal Barricade"]</t>
+  </si>
+  <si>
+    <t>Yuantiangang</t>
+  </si>
+  <si>
+    <t>袁天罡</t>
+  </si>
+  <si>
+    <t>造成伤害可获得标记并分配不同效果；受到伤害时可重新分配</t>
+  </si>
+  <si>
+    <t>["Stellar Allocation", "Revolving Sky"]</t>
+  </si>
+  <si>
+    <t>Lancelot</t>
+  </si>
+  <si>
+    <t>兰斯洛特</t>
+  </si>
+  <si>
+    <t>攻击命中可选择弃置资源或使目标失血；未命中攻击可获得资源</t>
+  </si>
+  <si>
+    <t>["Tidal Knight", "Unbroken Loot"]</t>
+  </si>
+  <si>
+    <t>Mordred</t>
+  </si>
+  <si>
+    <t>莫德雷德</t>
+  </si>
+  <si>
+    <t>造成伤害后可临时获得目标剑数；可令目标眩晕但自身体力降为1</t>
+  </si>
+  <si>
+    <t>["Premeditated Usurpation", "Treason's Toll"]</t>
+  </si>
+  <si>
+    <t>Spider</t>
+  </si>
+  <si>
+    <t>蜘蛛</t>
+  </si>
+  <si>
+    <t>可结网免伤并捕获目标；可产卵回复体力并获得网标记</t>
+  </si>
+  <si>
+    <t>["SpitSilk", "SpinWeb", "LayEggs"]</t>
+  </si>
+  <si>
+    <t>Huamulan</t>
+  </si>
+  <si>
+    <t>花木兰</t>
+  </si>
+  <si>
+    <t>补给额外获剑；可进入征战状态获得无双等效果；可保护指定目标</t>
+  </si>
+  <si>
+    <t>["Scribe's Mart", "Filial Campaign", "Bastion Sacrifice"]</t>
+  </si>
+  <si>
+    <t>Wuzeitan</t>
+  </si>
+  <si>
+    <t>武则天</t>
+  </si>
+  <si>
+    <t>可附加标记；核弹伤害可根据标记数增强</t>
+  </si>
+  <si>
+    <t>["Vindictive Script", "Death Decree", "Retribution of Empress"]</t>
+  </si>
+  <si>
+    <t>Guiguzi</t>
+  </si>
+  <si>
+    <t>鬼谷子</t>
+  </si>
+  <si>
+    <t>可交换两名角色的体力和资源；根据获得子弹数减少受伤</t>
+  </si>
+  <si>
+    <t>["Fate Swap", "Prudent Ward"]</t>
+  </si>
+  <si>
+    <t>Houqing</t>
+  </si>
+  <si>
+    <t>后卿</t>
+  </si>
+  <si>
+    <t>伤害随已损失体力增加；造成伤害后可进入泣血状态</t>
+  </si>
+  <si>
+    <t>["Bloodspring Surge", "Weeping Thorns", "Sanguine Ruin", "Bloody Substitution"]</t>
+  </si>
+  <si>
+    <t>Yinggou</t>
+  </si>
+  <si>
+    <t>赢勾</t>
+  </si>
+  <si>
+    <t>补子弹和拔剑时免疫相应攻击伤害</t>
+  </si>
+  <si>
+    <t>["Cadaverous Barrier"]</t>
+  </si>
+  <si>
+    <t>Hanba</t>
+  </si>
+  <si>
+    <t>旱魃</t>
+  </si>
+  <si>
+    <t>攻击时他人无法获得资源；可附加旱标记增强伤害</t>
+  </si>
+  <si>
+    <t>["Scorched Dominion", "Famine Brand"]</t>
+  </si>
+  <si>
+    <t>Jiangchen</t>
+  </si>
+  <si>
+    <t>将臣</t>
+  </si>
+  <si>
+    <t>无体力值，初始存活6回合，造成伤害可延长存活时间</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>["Eternal Specter", "Death's Crescendo"]</t>
+  </si>
+  <si>
+    <t>WolfKing</t>
+  </si>
+  <si>
+    <t>狼王</t>
+  </si>
+  <si>
+    <t>可召唤狼群，狼会复制你的子弹攻击</t>
+  </si>
+  <si>
+    <t>["Spectral Pack"]</t>
+  </si>
+  <si>
+    <t>Liyuanba</t>
+  </si>
+  <si>
+    <t>李元霸</t>
+  </si>
+  <si>
+    <t>可发动血怒，持续失去体力但伤害×5</t>
+  </si>
+  <si>
+    <t>["Sacrificial Fury"]</t>
+  </si>
+  <si>
+    <t>Taiyizhenren</t>
+  </si>
+  <si>
+    <t>太乙真人</t>
+  </si>
+  <si>
+    <t>可炼制并使用各种灵药获得不同效果</t>
+  </si>
+  <si>
+    <t>["Alchemic Synthesis"]</t>
+  </si>
+  <si>
+    <t>Sunce</t>
+  </si>
+  <si>
+    <t>孙策</t>
+  </si>
+  <si>
+    <t>每造成伤害获得子弹，下回合伤害翻倍</t>
+  </si>
+  <si>
+    <t>["Overdrive Rampage"]</t>
+  </si>
+  <si>
+    <t>ZhuBajie</t>
+  </si>
+  <si>
+    <t>猪八戒</t>
+  </si>
+  <si>
+    <t>只能单补单拔</t>
+  </si>
+  <si>
+    <t>["Hog-Tied"]</t>
+  </si>
+  <si>
+    <t>ShaSeng</t>
+  </si>
+  <si>
+    <t>沙僧</t>
+  </si>
+  <si>
+    <t>不能补给</t>
+  </si>
+  <si>
+    <t>["Void of Sustenance"]</t>
+  </si>
+  <si>
+    <t>Tangseng</t>
+  </si>
+  <si>
+    <t>唐僧</t>
+  </si>
+  <si>
+    <t>双手合十可眩晕攻击者并获得其资源</t>
+  </si>
+  <si>
+    <t>["MonkProtection"]</t>
+  </si>
+  <si>
+    <t>LiuBei</t>
+  </si>
+  <si>
+    <t>刘备</t>
+  </si>
+  <si>
+    <t>造成伤害后可选择取消部分改为眩晕并获得资源</t>
+  </si>
+  <si>
+    <t>["Fertile Mercy"]</t>
+  </si>
+  <si>
+    <t>SunQuan</t>
+  </si>
+  <si>
+    <t>孙权</t>
+  </si>
+  <si>
+    <t>攻击后可改为防御行动</t>
+  </si>
+  <si>
+    <t>["Ease Sanctuary"]</t>
+  </si>
+  <si>
+    <t>HanXin</t>
+  </si>
+  <si>
+    <t>韩信</t>
+  </si>
+  <si>
+    <t>每3资源攻击力+0.5，伤害+1，上限3</t>
+  </si>
+  <si>
+    <t>["Mass Mustering Master"]</t>
+  </si>
+  <si>
+    <t>XiangYu</t>
+  </si>
+  <si>
+    <t>项羽</t>
+  </si>
+  <si>
+    <t>可进入霸王状态，伤害×3且最多受1伤害</t>
+  </si>
+  <si>
+    <t>["Dominion Fervor"]</t>
+  </si>
+  <si>
+    <t>LiuBang</t>
+  </si>
+  <si>
+    <t>刘邦</t>
+  </si>
+  <si>
+    <t>受到伤害时可发动，根据对方下回合行动反弹伤害或自身眩晕</t>
+  </si>
+  <si>
+    <t>["Royal Gambit"]</t>
+  </si>
+  <si>
+    <t>SuQin</t>
+  </si>
+  <si>
+    <t>苏秦</t>
+  </si>
+  <si>
+    <t>造成伤害后可合纵，补给时获得额外资源</t>
+  </si>
+  <si>
+    <t>["VerticalAlliance"]</t>
+  </si>
+  <si>
+    <t>ZhangYi</t>
+  </si>
+  <si>
+    <t>张仪</t>
+  </si>
+  <si>
+    <t>造成伤害后可连横，增加攻击力</t>
+  </si>
+  <si>
+    <t>["HorizontalAlliance"]</t>
+  </si>
+  <si>
+    <t>BillOnTheRun</t>
+  </si>
+  <si>
+    <t>逃犯比尔</t>
+  </si>
+  <si>
+    <t>对你造成伤害的玩家获得一发子弹</t>
+  </si>
+  <si>
+    <t>["Daring Bounty"]</t>
+  </si>
+  <si>
+    <t>CunningJack</t>
+  </si>
+  <si>
+    <t>狡盗杰克</t>
+  </si>
+  <si>
+    <t>补给，获得5发子弹</t>
+  </si>
+  <si>
+    <t>["Powder Keg"]</t>
+  </si>
+  <si>
+    <t>RedHandedRory</t>
+  </si>
+  <si>
+    <t>血手罗里</t>
+  </si>
+  <si>
+    <t>受到攻击伤害之后，你可以选择获得等同于造成伤害的资源</t>
+  </si>
+  <si>
+    <t>["Ruthless Subsidization"]</t>
+  </si>
+  <si>
+    <t>HenryTheFarmer</t>
+  </si>
+  <si>
+    <t>农民亨利</t>
+  </si>
+  <si>
+    <t>你可以三拔三补</t>
+  </si>
+  <si>
+    <t>["Gathering Food"]</t>
+  </si>
+  <si>
+    <t>CalebTheThunderCultist</t>
+  </si>
+  <si>
+    <t>雷电法师迦勒</t>
+  </si>
+  <si>
+    <t>防御或反弹行动生效后，你可以对一位玩家使用技能雷击：造成三点无来源伤害；你获得所有无来源伤害的人头收益</t>
+  </si>
+  <si>
+    <t>["Thunder Command", "Heaven's Mandate"]</t>
+  </si>
+  <si>
+    <t>TheGuardian</t>
+  </si>
+  <si>
+    <t>守护者</t>
+  </si>
+  <si>
+    <t>当你防御或反弹行动生效时，你获得一个化盾标记；你一回合可以同时进行n个防御或n个反弹，n为你化盾标记数</t>
+  </si>
+  <si>
+    <t>["Aegis Conversion", "Infinite Aegis"]</t>
+  </si>
+  <si>
+    <t>TheUndead</t>
+  </si>
+  <si>
+    <t>僵尸</t>
+  </si>
+  <si>
+    <t>死亡结算前命数变为绝对值；可以对自己进行攻击</t>
+  </si>
+  <si>
+    <t>["Zombie lives forever", "Cannibalism"]</t>
+  </si>
+  <si>
+    <t>TomTheCat</t>
+  </si>
+  <si>
+    <t>汤姆</t>
+  </si>
+  <si>
+    <t>造成伤害后附加鼠标记；对带标记玩家攻击力+0.5；可绑火箭倒计时放飞；火箭相关互动；放飞时获得收益</t>
+  </si>
+  <si>
+    <t>["Mouse Hunter", "Species Dominance", "Rocket Specialist", "Blazing Fury", "Relentless Pursuit"]</t>
+  </si>
+  <si>
+    <t>SorenTheSwordman</t>
+  </si>
+  <si>
+    <t>剑客索伦</t>
+  </si>
+  <si>
+    <t>刀剑攻击首次命中获无双；连续命中可眩晕、重置剑CD、获连刺；三次命中重置计数</t>
+  </si>
+  <si>
+    <t>["Multistrike I", "Multistrike II", "Multistrike III"]</t>
+  </si>
+  <si>
+    <t>SorenTheSwordMaster</t>
+  </si>
+  <si>
+    <t>大剑师索伦</t>
+  </si>
+  <si>
+    <t>刀剑攻击生效获剑；刀剑攻击力+0.5；拥有连斩技能</t>
+  </si>
+  <si>
+    <t>["Swift", "Way of the Sword", "Multistrike"]</t>
+  </si>
+  <si>
+    <t>LeoTheCowboy</t>
+  </si>
+  <si>
+    <t>牛仔里奥</t>
+  </si>
+  <si>
+    <t>可以在多人时对一位玩家使用双枪和双RPG；子弹消耗后进入CD</t>
+  </si>
+  <si>
+    <t>["Twin Pistols", "Marksmanship"]</t>
+  </si>
+  <si>
+    <t>TheIronBlood</t>
+  </si>
+  <si>
+    <t>铁血战士</t>
+  </si>
+  <si>
+    <t>濒死时进入铁血状态，获得无畏和大力，三回合内造成10点伤害则复活</t>
+  </si>
+  <si>
+    <t>["IronBlood"]</t>
+  </si>
+  <si>
+    <t>Frankenstein</t>
+  </si>
+  <si>
+    <t>弗兰肯斯坦</t>
+  </si>
+  <si>
+    <t>体力≤5时进入暴怒状态，5回合伤害×4、霸体、伤害免疫，之后死亡</t>
+  </si>
+  <si>
+    <t>["Rampage"]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -110,44 +890,365 @@
       <sz val="9"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -155,83 +1256,319 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="5">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="176" formatCode="0_ "/>
       <fill>
@@ -246,29 +1583,75 @@
       </fill>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
+    <dxf>
+      <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="3"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color theme="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="3"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color theme="1"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="3"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DE0A52AB-7100-4275-8F2E-ABBE938425AF}" name="表1" displayName="表1" ref="A1:F5" totalsRowShown="0">
-  <autoFilter ref="A1:F5" xr:uid="{DE0A52AB-7100-4275-8F2E-ABBE938425AF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:F110" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F110" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{DD444754-6097-48F3-8E43-2935525E2674}" name="Key" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{EB7DE173-1896-4564-94CE-EADDE71BD7AF}" name="ID" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{DA7B3674-43AF-46BE-AF2F-F60BFAECCEC3}" name="Name" dataDxfId="2"/>
-    <tableColumn id="24" xr3:uid="{A0904A72-D19E-4BEF-8748-599189CE2D10}" name="Description" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{64F30FDC-87C5-4E5A-B535-A4EB4772F9BE}" name="MaxHP" dataDxfId="0"/>
-    <tableColumn id="11" xr3:uid="{1C43F80F-61C4-4650-A816-E97B8499FB51}" name="SkillIDList"/>
+    <tableColumn id="1" name="Key" dataDxfId="0"/>
+    <tableColumn id="3" name="ID" dataDxfId="1"/>
+    <tableColumn id="5" name="Name" dataDxfId="2"/>
+    <tableColumn id="24" name="Description" dataDxfId="3"/>
+    <tableColumn id="6" name="MaxHP" dataDxfId="4"/>
+    <tableColumn id="11" name="SkillIDList"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -317,7 +1700,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -352,7 +1735,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -526,35 +1909,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" customWidth="1"/>
-    <col min="2" max="2" width="25.4140625" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="24.4140625" customWidth="1"/>
-    <col min="5" max="5" width="17.08203125" customWidth="1"/>
-    <col min="6" max="6" width="24.83203125" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" customWidth="1"/>
+    <col min="1" max="1" width="17.8318584070796" customWidth="1"/>
+    <col min="2" max="2" width="25.4159292035398" customWidth="1"/>
+    <col min="3" max="3" width="20.3362831858407" customWidth="1"/>
+    <col min="4" max="4" width="24.4159292035398" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="17.0796460176991" customWidth="1"/>
+    <col min="6" max="6" width="119.318584070796" customWidth="1"/>
+    <col min="7" max="7" width="12.8318584070796" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,74 +1946,1586 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E2" s="3">
         <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" s="3">
         <v>20</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3">
+        <v>15</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3">
+        <v>40</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="3">
+        <v>15</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="3">
+        <v>15</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="3">
+        <v>30</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="3">
+        <v>15</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="3">
+        <v>15</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" ht="24.75" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="3">
+        <v>20</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="3">
+        <v>15</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="3">
+        <v>20</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="3">
+        <v>15</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="3">
+        <v>12</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="3">
+        <v>20</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="3">
+        <v>15</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="3">
+        <v>15</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="3">
+        <v>15</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="3">
+        <v>15</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="3">
+        <v>15</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="3">
+        <v>15</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="3">
+        <v>3</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="3">
+        <v>18</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="3">
+        <v>15</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="3">
+        <v>15</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29" s="3">
+        <v>15</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" s="3">
+        <v>18</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" s="3">
+        <v>20</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E32" s="3">
+        <v>15</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33" s="3">
+        <v>18</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" s="3">
+        <v>15</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E35" s="3">
+        <v>15</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E36" s="3">
+        <v>15</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E37" s="3">
+        <v>15</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E38" s="3">
+        <v>15</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E39" s="3">
+        <v>15</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E40" s="3">
+        <v>18</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E41" s="3">
+        <v>15</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E43" s="3">
+        <v>15</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E44" s="3">
+        <v>15</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E45" s="3">
+        <v>12</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E46" s="3">
+        <v>15</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E47" s="3">
+        <v>40</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E48" s="3">
+        <v>50</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E49" s="3">
+        <v>18</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E50" s="3">
+        <v>15</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E51" s="3">
+        <v>20</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E52" s="3">
+        <v>12</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E53" s="3">
+        <v>20</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E54" s="3">
+        <v>20</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E55" s="3">
+        <v>15</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E56" s="3">
+        <v>15</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E58" s="3">
+        <v>40</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E59" s="3">
+        <v>15</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E60" s="3">
+        <v>20</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E61" s="3">
+        <v>20</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="62" ht="24.75" spans="1:6">
+      <c r="A62" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E62" s="3">
+        <v>15</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E63" s="3">
+        <v>20</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E64" s="3">
+        <v>6</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E65" s="3">
+        <v>20</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E66" s="3">
+        <v>18</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="67" ht="24.75" spans="1:6">
+      <c r="A67" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E67" s="3">
+        <v>12</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E68" s="3">
+        <v>18</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E69" s="3">
+        <v>6</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E70" s="3">
+        <v>15</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="4"/>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="4"/>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="4"/>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="4"/>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="4"/>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="4"/>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="4"/>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="4"/>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="4"/>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="4"/>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="4"/>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="4"/>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="4"/>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="4"/>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="4"/>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="4"/>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="4"/>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="4"/>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="4"/>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="4"/>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="4"/>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="4"/>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="4"/>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="4"/>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Src/Assets/Common/Tables/Tables/Hero.xlsx
+++ b/Src/Assets/Common/Tables/Tables/Hero.xlsx
@@ -1,33 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CCA\Src\Assets\Common\Tables\Tables\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B9008D-E442-4025-BB3E-A2466E1C103D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9555"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="292">
   <si>
     <t>Key</t>
   </si>
@@ -536,9 +534,6 @@
     <t>无体力值，初始存活6回合，造成伤害可延长存活时间</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>["Eternal Specter", "Death's Crescendo"]</t>
   </si>
   <si>
@@ -864,20 +859,98 @@
   </si>
   <si>
     <t>["Rampage"]</t>
+  </si>
+  <si>
+    <t>Wukong</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lvbu</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diaochan</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Houyi</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bianque</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arthur</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dianwei</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TheSepulchralGuardian</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chengyaojin</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maxim</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blank</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lank</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>白板</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -910,345 +983,49 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1256,253 +1033,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1516,59 +1051,78 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="5">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="176" formatCode="0_ "/>
       <fill>
@@ -1583,75 +1137,29 @@
       </fill>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
-    <dxf>
-      <font>
-        <name val="宋体"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="3"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color theme="1"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="3"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color theme="1"/>
-      </font>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="宋体"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="3"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color auto="1"/>
-      </font>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:F110" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F110" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:F110" totalsRowShown="0">
+  <autoFilter ref="A1:F110" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Key" dataDxfId="0"/>
-    <tableColumn id="3" name="ID" dataDxfId="1"/>
-    <tableColumn id="5" name="Name" dataDxfId="2"/>
-    <tableColumn id="24" name="Description" dataDxfId="3"/>
-    <tableColumn id="6" name="MaxHP" dataDxfId="4"/>
-    <tableColumn id="11" name="SkillIDList"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Key" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ID" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name" dataDxfId="2"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Description" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="MaxHP" dataDxfId="0"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="SkillIDList"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1909,30 +1417,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.8318584070796" customWidth="1"/>
-    <col min="2" max="2" width="25.4159292035398" customWidth="1"/>
-    <col min="3" max="3" width="20.3362831858407" customWidth="1"/>
-    <col min="4" max="4" width="24.4159292035398" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="17.0796460176991" customWidth="1"/>
-    <col min="6" max="6" width="119.318584070796" customWidth="1"/>
-    <col min="7" max="7" width="12.8318584070796" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="2" max="2" width="25.4140625" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.4140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="17.08203125" customWidth="1"/>
+    <col min="6" max="6" width="119.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1952,1375 +1460,1385 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8">
+        <v>25</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E3" s="3">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E4" s="3">
         <v>20</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="3">
-        <v>15</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="E5" s="3">
+        <v>15</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E6" s="3">
         <v>40</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="3">
-        <v>15</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="E7" s="3">
+        <v>15</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B8" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="3">
-        <v>15</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="E8" s="3">
+        <v>15</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="3">
         <v>30</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="3">
-        <v>30</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="3">
-        <v>15</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="E10" s="3">
+        <v>15</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B11" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="3">
-        <v>15</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="E11" s="3">
+        <v>15</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" ht="24.75" spans="1:6">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B12" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="E11" s="3">
-        <v>20</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="E12" s="3">
         <v>20</v>
       </c>
       <c r="F12" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="3">
+        <v>20</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="3">
-        <v>15</v>
-      </c>
-      <c r="F13" s="4" t="s">
+      <c r="E14" s="3">
+        <v>15</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="B15" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E15" s="3">
         <v>20</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="B16" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E16" s="3">
         <v>12</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="2" t="s">
+    <row r="17" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="3">
-        <v>15</v>
-      </c>
-      <c r="F16" s="4" t="s">
+      <c r="E17" s="3">
+        <v>15</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E18" s="3">
         <v>12</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="2" t="s">
+    <row r="19" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E19" s="3">
         <v>20</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
+    <row r="20" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="3">
-        <v>15</v>
-      </c>
-      <c r="F19" s="4" t="s">
+      <c r="E20" s="3">
+        <v>15</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="2" t="s">
+    <row r="21" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E20" s="3">
-        <v>15</v>
-      </c>
-      <c r="F20" s="4" t="s">
+      <c r="E21" s="3">
+        <v>15</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="2" t="s">
+    <row r="22" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="3">
-        <v>15</v>
-      </c>
-      <c r="F21" s="4" t="s">
+      <c r="E22" s="3">
+        <v>15</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="2" t="s">
+    <row r="23" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="3">
-        <v>15</v>
-      </c>
-      <c r="F22" s="4" t="s">
+      <c r="E23" s="3">
+        <v>15</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="2" t="s">
+    <row r="24" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E23" s="3">
-        <v>15</v>
-      </c>
-      <c r="F23" s="4" t="s">
+      <c r="E24" s="3">
+        <v>15</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="2" t="s">
+    <row r="25" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E24" s="3">
-        <v>15</v>
-      </c>
-      <c r="F24" s="4" t="s">
+      <c r="E25" s="3">
+        <v>15</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="2" t="s">
+    <row r="26" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E26" s="3">
         <v>3</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F26" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="2" t="s">
+    <row r="27" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E27" s="3">
         <v>18</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F27" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="2" t="s">
+    <row r="28" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E27" s="3">
-        <v>15</v>
-      </c>
-      <c r="F27" s="4" t="s">
+      <c r="E28" s="3">
+        <v>15</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="2" t="s">
+    <row r="29" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E28" s="3">
-        <v>15</v>
-      </c>
-      <c r="F28" s="4" t="s">
+      <c r="E29" s="3">
+        <v>15</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="2" t="s">
+    <row r="30" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E29" s="3">
-        <v>15</v>
-      </c>
-      <c r="F29" s="4" t="s">
+      <c r="E30" s="3">
+        <v>15</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="2" t="s">
+    <row r="31" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E31" s="3">
         <v>18</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F31" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="2" t="s">
+    <row r="32" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E32" s="3">
         <v>20</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F32" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="2" t="s">
+    <row r="33" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E32" s="3">
-        <v>15</v>
-      </c>
-      <c r="F32" s="4" t="s">
+      <c r="E33" s="3">
+        <v>15</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="2" t="s">
+    <row r="34" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E34" s="3">
         <v>18</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F34" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="2" t="s">
+    <row r="35" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E34" s="3">
-        <v>15</v>
-      </c>
-      <c r="F34" s="4" t="s">
+      <c r="E35" s="3">
+        <v>15</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="2" t="s">
+    <row r="36" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E35" s="3">
-        <v>15</v>
-      </c>
-      <c r="F35" s="4" t="s">
+      <c r="E36" s="3">
+        <v>15</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="2" t="s">
+    <row r="37" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E36" s="3">
-        <v>15</v>
-      </c>
-      <c r="F36" s="4" t="s">
+      <c r="E37" s="3">
+        <v>15</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="2" t="s">
+    <row r="38" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E37" s="3">
-        <v>15</v>
-      </c>
-      <c r="F37" s="4" t="s">
+      <c r="E38" s="3">
+        <v>15</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="2" t="s">
+    <row r="39" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E38" s="3">
-        <v>15</v>
-      </c>
-      <c r="F38" s="4" t="s">
+      <c r="E39" s="3">
+        <v>15</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="2" t="s">
+    <row r="40" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E39" s="3">
-        <v>15</v>
-      </c>
-      <c r="F39" s="4" t="s">
+      <c r="E40" s="3">
+        <v>15</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="2" t="s">
+    <row r="41" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E41" s="3">
         <v>18</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F41" s="4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="2" t="s">
+    <row r="42" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E41" s="3">
-        <v>15</v>
-      </c>
-      <c r="F41" s="4" t="s">
+      <c r="E42" s="3">
+        <v>15</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="2" t="s">
+    <row r="43" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E43" s="3">
+        <v>10000000</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="F42" s="4" t="s">
+    </row>
+    <row r="44" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="2" t="s">
+      <c r="B44" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C43" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="E44" s="3">
+        <v>15</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E43" s="3">
-        <v>15</v>
-      </c>
-      <c r="F43" s="4" t="s">
+    </row>
+    <row r="45" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="2" t="s">
+      <c r="B45" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C44" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="E45" s="3">
+        <v>15</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E44" s="3">
-        <v>15</v>
-      </c>
-      <c r="F44" s="4" t="s">
+    </row>
+    <row r="46" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="2" t="s">
+      <c r="B46" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C45" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="E46" s="3">
+        <v>12</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E45" s="3">
+    </row>
+    <row r="47" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E47" s="3">
+        <v>15</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E48" s="3">
+        <v>40</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E49" s="3">
+        <v>50</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E50" s="3">
+        <v>18</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E51" s="3">
+        <v>15</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E52" s="3">
+        <v>20</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E53" s="3">
         <v>12</v>
       </c>
-      <c r="F45" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E46" s="3">
-        <v>15</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E47" s="3">
-        <v>40</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E48" s="3">
-        <v>50</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E49" s="3">
-        <v>18</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E50" s="3">
-        <v>15</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E51" s="3">
-        <v>20</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D52" s="3" t="s">
+      <c r="F53" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="E52" s="3">
-        <v>12</v>
-      </c>
-      <c r="F52" s="4" t="s">
+    </row>
+    <row r="54" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="2" t="s">
+      <c r="B54" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C53" s="3" t="s">
+      <c r="D54" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E53" s="3">
-        <v>20</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>217</v>
       </c>
       <c r="E54" s="3">
         <v>20</v>
       </c>
       <c r="F54" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E55" s="3">
+        <v>20</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="2" t="s">
+      <c r="B56" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C55" s="3" t="s">
+      <c r="D56" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="E56" s="3">
+        <v>15</v>
+      </c>
+      <c r="F56" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="E55" s="3">
-        <v>15</v>
-      </c>
-      <c r="F55" s="4" t="s">
+    </row>
+    <row r="57" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="2" t="s">
+      <c r="B57" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C56" s="3" t="s">
+      <c r="D57" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="E57" s="3">
+        <v>15</v>
+      </c>
+      <c r="F57" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="E56" s="3">
-        <v>15</v>
-      </c>
-      <c r="F56" s="4" t="s">
+    </row>
+    <row r="58" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="4"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="2" t="s">
+      <c r="B58" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C58" s="3" t="s">
+      <c r="D58" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>229</v>
       </c>
       <c r="E58" s="3">
         <v>40</v>
       </c>
       <c r="F58" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="2" t="s">
+      <c r="B59" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C59" s="3" t="s">
+      <c r="D59" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="E59" s="3">
+        <v>15</v>
+      </c>
+      <c r="F59" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="E59" s="3">
-        <v>15</v>
-      </c>
-      <c r="F59" s="4" t="s">
+    </row>
+    <row r="60" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="2" t="s">
+      <c r="B60" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C60" s="3" t="s">
+      <c r="D60" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>237</v>
       </c>
       <c r="E60" s="3">
         <v>20</v>
       </c>
       <c r="F60" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="2" t="s">
+      <c r="B61" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C61" s="3" t="s">
+      <c r="D61" s="3" t="s">
         <v>240</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>241</v>
       </c>
       <c r="E61" s="3">
         <v>20</v>
       </c>
       <c r="F61" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="62" ht="24.75" spans="1:6">
-      <c r="A62" s="2" t="s">
+      <c r="B62" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C62" s="3" t="s">
+      <c r="D62" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="E62" s="3">
+        <v>15</v>
+      </c>
+      <c r="F62" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E62" s="3">
-        <v>15</v>
-      </c>
-      <c r="F62" s="4" t="s">
+    </row>
+    <row r="63" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="2" t="s">
+      <c r="B63" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C63" s="3" t="s">
+      <c r="D63" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="E63" s="3">
         <v>20</v>
       </c>
       <c r="F63" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="2" t="s">
+      <c r="B64" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C64" s="3" t="s">
+      <c r="D64" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>253</v>
       </c>
       <c r="E64" s="3">
         <v>6</v>
       </c>
       <c r="F64" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="2" t="s">
+      <c r="B65" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C65" s="3" t="s">
+      <c r="D65" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>257</v>
       </c>
       <c r="E65" s="3">
         <v>20</v>
       </c>
       <c r="F65" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="2" t="s">
+      <c r="B66" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C66" s="3" t="s">
+      <c r="D66" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>261</v>
       </c>
       <c r="E66" s="3">
         <v>18</v>
       </c>
       <c r="F66" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="67" ht="24.75" spans="1:6">
-      <c r="A67" s="2" t="s">
+      <c r="B67" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C67" s="3" t="s">
+      <c r="D67" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>265</v>
       </c>
       <c r="E67" s="3">
         <v>12</v>
       </c>
       <c r="F67" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="2" t="s">
+      <c r="B68" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C68" s="3" t="s">
+      <c r="D68" s="3" t="s">
         <v>268</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>269</v>
       </c>
       <c r="E68" s="3">
         <v>18</v>
       </c>
       <c r="F68" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="2" t="s">
+      <c r="B69" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C69" s="3" t="s">
+      <c r="D69" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>273</v>
       </c>
       <c r="E69" s="3">
         <v>6</v>
       </c>
       <c r="F69" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="2" t="s">
+      <c r="B70" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C70" s="3" t="s">
+      <c r="D70" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="E70" s="3">
+        <v>15</v>
+      </c>
+      <c r="F70" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="E70" s="3">
-        <v>15</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+    </row>
+    <row r="73" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="3"/>
@@ -3328,7 +2846,7 @@
       <c r="E73" s="3"/>
       <c r="F73" s="4"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="3"/>
@@ -3336,7 +2854,7 @@
       <c r="E74" s="3"/>
       <c r="F74" s="4"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="3"/>
@@ -3344,7 +2862,7 @@
       <c r="E75" s="3"/>
       <c r="F75" s="4"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="3"/>
@@ -3352,7 +2870,7 @@
       <c r="E76" s="3"/>
       <c r="F76" s="4"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="3"/>
@@ -3360,7 +2878,7 @@
       <c r="E77" s="3"/>
       <c r="F77" s="4"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="3"/>
@@ -3368,7 +2886,7 @@
       <c r="E78" s="3"/>
       <c r="F78" s="4"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="3"/>
@@ -3376,7 +2894,7 @@
       <c r="E79" s="3"/>
       <c r="F79" s="4"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="3"/>
@@ -3384,7 +2902,7 @@
       <c r="E80" s="3"/>
       <c r="F80" s="4"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="3"/>
@@ -3392,7 +2910,7 @@
       <c r="E81" s="3"/>
       <c r="F81" s="4"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="3"/>
@@ -3400,7 +2918,7 @@
       <c r="E82" s="3"/>
       <c r="F82" s="4"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="3"/>
@@ -3408,7 +2926,7 @@
       <c r="E83" s="3"/>
       <c r="F83" s="4"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="3"/>
@@ -3416,7 +2934,7 @@
       <c r="E84" s="3"/>
       <c r="F84" s="4"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="3"/>
@@ -3424,7 +2942,7 @@
       <c r="E85" s="3"/>
       <c r="F85" s="4"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="3"/>
@@ -3432,7 +2950,7 @@
       <c r="E86" s="3"/>
       <c r="F86" s="4"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="3"/>
@@ -3440,7 +2958,7 @@
       <c r="E87" s="3"/>
       <c r="F87" s="4"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="3"/>
@@ -3448,7 +2966,7 @@
       <c r="E88" s="3"/>
       <c r="F88" s="4"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="3"/>
@@ -3456,7 +2974,7 @@
       <c r="E89" s="3"/>
       <c r="F89" s="4"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="3"/>
@@ -3464,7 +2982,7 @@
       <c r="E90" s="3"/>
       <c r="F90" s="4"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="3"/>
@@ -3472,7 +2990,7 @@
       <c r="E91" s="3"/>
       <c r="F91" s="4"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="3"/>
@@ -3480,7 +2998,7 @@
       <c r="E92" s="3"/>
       <c r="F92" s="4"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="3"/>
@@ -3488,7 +3006,7 @@
       <c r="E93" s="3"/>
       <c r="F93" s="4"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="3"/>
@@ -3496,7 +3014,7 @@
       <c r="E94" s="3"/>
       <c r="F94" s="4"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="3"/>
@@ -3504,7 +3022,7 @@
       <c r="E95" s="3"/>
       <c r="F95" s="4"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="3"/>
@@ -3512,7 +3030,7 @@
       <c r="E96" s="3"/>
       <c r="F96" s="4"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="3"/>
@@ -3521,11 +3039,11 @@
       <c r="F97" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>